--- a/tests/materials/VSwellingUr/VswellingUr.xlsx
+++ b/tests/materials/VSwellingUr/VswellingUr.xlsx
@@ -10,7 +10,7 @@
     <sheet name="densification" sheetId="3" r:id="rId1"/>
     <sheet name="gas_por" sheetId="4" r:id="rId2"/>
     <sheet name="gas_hight" sheetId="5" r:id="rId3"/>
-    <sheet name="gas_stress" sheetId="6" r:id="rId4"/>
+    <sheet name="gas_contact" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -120,9 +120,6 @@
     <t>hight</t>
   </si>
   <si>
-    <t>Stress</t>
-  </si>
-  <si>
     <t>Pa</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>cont_pres</t>
+  </si>
 </sst>
 </file>
 
@@ -138,9 +138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -185,8 +185,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="343">
+  <cellStyleXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -536,11 +542,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="343">
+  <cellStyles count="349">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -712,6 +718,9 @@
     <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -883,6 +892,9 @@
     <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1896,11 +1908,11 @@
         <v>1.0483089999999999</v>
       </c>
       <c r="G14" s="6">
-        <f>G13*(1+1.711*EXP(-(D14-0.04))*1.12*(C14-C13))</f>
+        <f t="shared" ref="G14:G23" si="0">G13*(1+1.711*EXP(-(D14-0.04))*1.12*(C14-C13))</f>
         <v>1.0486320366996098</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H23" si="0">ABS(G14-E14)/G14*100</f>
+        <f t="shared" ref="H14:H23" si="1">ABS(G14-E14)/G14*100</f>
         <v>3.0805534096266182E-2</v>
       </c>
     </row>
@@ -1918,11 +1930,11 @@
         <v>1.0983830000000001</v>
       </c>
       <c r="G15" s="6">
-        <f>G14*(1+1.711*EXP(-(D15-0.04))*1.12*(C15-C14))</f>
+        <f t="shared" si="0"/>
         <v>1.0983700252187669</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1812759757900294E-3</v>
       </c>
     </row>
@@ -1940,11 +1952,11 @@
         <v>1.1494089999999999</v>
       </c>
       <c r="G16" s="6">
-        <f>G15*(1+1.711*EXP(-(D16-0.04))*1.12*(C16-C15))</f>
+        <f t="shared" si="0"/>
         <v>1.1491808689300873</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9851624411829187E-2</v>
       </c>
     </row>
@@ -1962,11 +1974,11 @@
         <v>1.201274</v>
       </c>
       <c r="G17" s="6">
-        <f>G16*(1+1.711*EXP(-(D17-0.04))*1.12*(C17-C16))</f>
+        <f t="shared" si="0"/>
         <v>1.2010296748953948</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0342969845972156E-2</v>
       </c>
     </row>
@@ -1984,11 +1996,11 @@
         <v>1.25387</v>
       </c>
       <c r="G18" s="6">
-        <f>G17*(1+1.711*EXP(-(D18-0.04))*1.12*(C18-C17))</f>
+        <f t="shared" si="0"/>
         <v>1.2538798886239064</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8864203789382923E-4</v>
       </c>
     </row>
@@ -2006,11 +2018,11 @@
         <v>1.307086</v>
       </c>
       <c r="G19" s="6">
-        <f>G18*(1+1.711*EXP(-(D19-0.04))*1.12*(C19-C18))</f>
+        <f t="shared" si="0"/>
         <v>1.3076934314085467</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6450597208583494E-2</v>
       </c>
     </row>
@@ -2028,11 +2040,11 @@
         <v>1.3608180000000001</v>
       </c>
       <c r="G20" s="6">
-        <f>G19*(1+1.711*EXP(-(D20-0.04))*1.12*(C20-C19))</f>
+        <f t="shared" si="0"/>
         <v>1.362430839387468</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11837954198049688</v>
       </c>
     </row>
@@ -2050,11 +2062,11 @@
         <v>1.414963</v>
       </c>
       <c r="G21" s="6">
-        <f>G20*(1+1.711*EXP(-(D21-0.04))*1.12*(C21-C20))</f>
+        <f t="shared" si="0"/>
         <v>1.4180514035141638</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21779207061960307</v>
       </c>
     </row>
@@ -2072,11 +2084,11 @@
         <v>1.4694229999999999</v>
       </c>
       <c r="G22" s="6">
-        <f>G21*(1+1.711*EXP(-(D22-0.04))*1.12*(C22-C21))</f>
+        <f t="shared" si="0"/>
         <v>1.4745133096601057</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34521964818881157</v>
       </c>
     </row>
@@ -2094,11 +2106,11 @@
         <v>1.5241070000000001</v>
       </c>
       <c r="G23" s="6">
-        <f>G22*(1+1.711*EXP(-(D23-0.04))*1.12*(C23-C22))</f>
+        <f t="shared" si="0"/>
         <v>1.531773778117876</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50051634434532488</v>
       </c>
       <c r="I23" s="1"/>
@@ -2355,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <f>ABS(J9-E9)/J9*100</f>
+        <f t="shared" ref="K9:K19" si="0">ABS(J9-E9)/J9*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2373,7 +2385,7 @@
         <v>1.019226</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:G19" si="0">IF(C10/$D$2-2&lt;0,0,C10/$D$2-2)</f>
+        <f t="shared" ref="G10:G19" si="1">IF(C10/$D$2-2&lt;0,0,C10/$D$2-2)</f>
         <v>0</v>
       </c>
       <c r="H10">
@@ -2389,7 +2401,7 @@
         <v>1.01902632</v>
       </c>
       <c r="K10">
-        <f>ABS(J10-E10)/J10*100</f>
+        <f t="shared" si="0"/>
         <v>1.9595175912622588E-2</v>
       </c>
     </row>
@@ -2407,15 +2419,15 @@
         <v>1.0388170000000001</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H19" si="1">1.711*1.112*(C11-C10)</f>
+        <f t="shared" ref="H11:H19" si="2">1.711*1.112*(C11-C10)</f>
         <v>1.9026320000000003E-2</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11:I19" si="2">(1.711+($H$1+$H$2*(D11-273)+$H$3*(D11-273)^2)*G11)*1.112*(C11-C10)</f>
+        <f t="shared" ref="I11:I19" si="3">(1.711+($H$1+$H$2*(D11-273)+$H$3*(D11-273)^2)*G11)*1.112*(C11-C10)</f>
         <v>1.9026320000000003E-2</v>
       </c>
       <c r="J11" s="6">
@@ -2423,7 +2435,7 @@
         <v>1.0384146408527424</v>
       </c>
       <c r="K11">
-        <f>ABS(J11-E11)/J11*100</f>
+        <f t="shared" si="0"/>
         <v>3.8747445522080558E-2</v>
       </c>
     </row>
@@ -2441,15 +2453,15 @@
         <v>1.059666</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67857142857142883</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026319999999999E-2</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9871439999999987E-2</v>
       </c>
       <c r="J12" s="6">
@@ -2457,7 +2469,7 @@
         <v>1.0590494350835691</v>
       </c>
       <c r="K12">
-        <f>ABS(J12-E12)/J12*100</f>
+        <f t="shared" si="0"/>
         <v>5.821870972267356E-2</v>
       </c>
     </row>
@@ -2475,23 +2487,23 @@
         <v>1.0856399999999999</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5714285714285721</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026320000000006E-2</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4268605714285706E-2</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" ref="J13:J14" si="3">J12*(1+I13)</f>
+        <f t="shared" ref="J13:J14" si="4">J12*(1+I13)</f>
         <v>1.0847510882555493</v>
       </c>
       <c r="K13">
-        <f>ABS(J13-E13)/J13*100</f>
+        <f t="shared" si="0"/>
         <v>8.1946149128102261E-2</v>
       </c>
     </row>
@@ -2509,23 +2521,23 @@
         <v>1.123472</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4642857142857153</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026320000000006E-2</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4481531428571355E-2</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.12215496699741</v>
       </c>
       <c r="K14">
-        <f>ABS(J14-E14)/J14*100</f>
+        <f t="shared" si="0"/>
         <v>0.11736641028413738</v>
       </c>
     </row>
@@ -2543,15 +2555,15 @@
         <v>1.175098</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3571428571428577</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2773931428571341E-2</v>
       </c>
       <c r="J15" s="6">
@@ -2559,7 +2571,7 @@
         <v>1.1680623266972741</v>
       </c>
       <c r="K15">
-        <f>ABS(J15-E15)/J15*100</f>
+        <f t="shared" si="0"/>
         <v>0.60233714776329317</v>
       </c>
     </row>
@@ -2577,15 +2589,15 @@
         <v>1.228858</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2500000000000018</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.902632000000002E-2</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1409519999999957E-2</v>
       </c>
       <c r="J16" s="6">
@@ -2593,7 +2605,7 @@
         <v>1.2158477564824595</v>
       </c>
       <c r="K16">
-        <f>ABS(J16-E16)/J16*100</f>
+        <f t="shared" si="0"/>
         <v>1.0700553131076354</v>
       </c>
     </row>
@@ -2611,15 +2623,15 @@
         <v>1.284761</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1428571428571441</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12265201142857127</v>
       </c>
       <c r="J17" s="6">
@@ -2627,7 +2639,7 @@
         <v>1.2655880882001569</v>
       </c>
       <c r="K17">
-        <f>ABS(J17-E17)/J17*100</f>
+        <f t="shared" si="0"/>
         <v>1.5149409178708146</v>
       </c>
     </row>
@@ -2645,15 +2657,15 @@
         <v>1.3428150000000001</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0357142857142865</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17876511999999961</v>
       </c>
       <c r="J18" s="6">
@@ -2661,7 +2673,7 @@
         <v>1.3173632968884252</v>
       </c>
       <c r="K18">
-        <f>ABS(J18-E18)/J18*100</f>
+        <f t="shared" si="0"/>
         <v>1.9320185382188084</v>
       </c>
     </row>
@@ -2679,15 +2691,15 @@
         <v>1.403019</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9285714285714306</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.902632000000002E-2</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25201256000000011</v>
       </c>
       <c r="J19" s="6">
@@ -2695,7 +2707,7 @@
         <v>1.3712566293641306</v>
       </c>
       <c r="K19">
-        <f>ABS(J19-E19)/J19*100</f>
+        <f t="shared" si="0"/>
         <v>2.3162965965457549</v>
       </c>
     </row>
@@ -2955,7 +2967,7 @@
   <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B12" sqref="B12:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3018,12 +3030,12 @@
         <v>1000000</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <f>4.558*1.112*C14</f>
@@ -3060,7 +3072,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -3072,7 +3084,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -3092,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>ABS(F13-E13)/F13*100</f>
+        <f t="shared" ref="G13:G23" si="0">ABS(F13-E13)/F13*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3126,7 @@
         <v>1.0479080000000001</v>
       </c>
       <c r="G14" s="6">
-        <f>ABS(F14-E14)/F14*100</f>
+        <f t="shared" si="0"/>
         <v>5.382151868293867E-2</v>
       </c>
       <c r="H14">
@@ -3136,15 +3148,15 @@
         <v>1.0958840000000001</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F23" si="0">F14*(1+1.711*EXP(-(D14/$D$7*$D$2))*1.12*(C15-C14))</f>
+        <f t="shared" ref="F15:F23" si="1">F14*(1+1.711*EXP(-(D14/$D$7*$D$2))*1.12*(C15-C14))</f>
         <v>1.0971170869657978</v>
       </c>
       <c r="G15" s="6">
-        <f>ABS(F15-E15)/F15*100</f>
+        <f t="shared" si="0"/>
         <v>0.11239337901553938</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H23" si="1">1.711*EXP(-(D15/$D$7*$D$2))*1.12*(C15-C14)</f>
+        <f t="shared" ref="H15:H23" si="2">1.711*EXP(-(D15/$D$7*$D$2))*1.12*(C15-C14)</f>
         <v>4.6029500450909505E-2</v>
       </c>
     </row>
@@ -3162,15 +3174,15 @@
         <v>1.145535</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1476168384149905</v>
       </c>
       <c r="G16" s="6">
-        <f>ABS(F16-E16)/F16*100</f>
+        <f t="shared" si="0"/>
         <v>0.18140535632657992</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5118055274954182E-2</v>
       </c>
     </row>
@@ -3188,15 +3200,15 @@
         <v>1.196213</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1993950783650662</v>
       </c>
       <c r="G17" s="6">
-        <f>ABS(F17-E17)/F17*100</f>
+        <f t="shared" si="0"/>
         <v>0.2653069386781064</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4224657922690959E-2</v>
       </c>
     </row>
@@ -3214,15 +3226,15 @@
         <v>1.24783</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2524379154199206</v>
       </c>
       <c r="G18" s="6">
-        <f>ABS(F18-E18)/F18*100</f>
+        <f t="shared" si="0"/>
         <v>0.36791567575432327</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3348951023266746E-2</v>
       </c>
     </row>
@@ -3240,15 +3252,15 @@
         <v>1.3002990000000001</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3067297852751409</v>
       </c>
       <c r="G19" s="6">
-        <f>ABS(F19-E19)/F19*100</f>
+        <f t="shared" si="0"/>
         <v>0.49212816204283599</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2490584282245579E-2</v>
       </c>
     </row>
@@ -3266,15 +3278,15 @@
         <v>1.353534</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3622534973504949</v>
       </c>
       <c r="G20" s="6">
-        <f>ABS(F20-E20)/F20*100</f>
+        <f t="shared" si="0"/>
         <v>0.64007891097023095</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1649214341485989E-2</v>
       </c>
     </row>
@@ -3292,15 +3304,15 @@
         <v>1.4074469999999999</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4189902852490845</v>
       </c>
       <c r="G21" s="6">
-        <f>ABS(F21-E21)/F21*100</f>
+        <f t="shared" si="0"/>
         <v>0.81348585463066703</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0824504641793297E-2</v>
       </c>
     </row>
@@ -3318,15 +3330,15 @@
         <v>1.461957</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4769198607358953</v>
       </c>
       <c r="G22" s="6">
-        <f>ABS(F22-E22)/F22*100</f>
+        <f t="shared" si="0"/>
         <v>1.0131125685072662</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0016125288291217E-2</v>
       </c>
     </row>
@@ -3344,15 +3356,15 @@
         <v>1.5169820000000001</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5360204709238683</v>
       </c>
       <c r="G23" s="6">
-        <f>ABS(F23-E23)/F23*100</f>
+        <f t="shared" si="0"/>
         <v>1.2394672651997398</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9223752918459948E-2</v>
       </c>
       <c r="I23" s="1"/>

--- a/tests/materials/VSwellingUr/VswellingUr.xlsx
+++ b/tests/materials/VSwellingUr/VswellingUr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="16120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="densification" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
   <si>
     <t>burnup</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Pa</t>
   </si>
   <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>cont_pres</t>
   </si>
 </sst>
@@ -136,11 +130,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -148,7 +143,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,8 +179,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="349">
+  <cellStyleXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -541,12 +569,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="349">
+  <cellStyles count="383">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -721,6 +749,23 @@
     <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -895,6 +940,23 @@
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1275,18 +1337,18 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" ref="G8:G18" si="0">$G$4*(1-EXP(-E8/$G$5))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" ref="H8:H18" si="1">(1+G8)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <f t="shared" ref="I8:I18" si="2">ABS(F8-H8)/H8*100</f>
         <v>0</v>
       </c>
@@ -1298,18 +1360,18 @@
       <c r="E9" s="1">
         <v>0.01</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>0.97254510000000005</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>-2.7578229503522903E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="1"/>
         <v>0.97242177049647704</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <f t="shared" si="2"/>
         <v>1.2682717239047379E-2</v>
       </c>
@@ -1321,18 +1383,18 @@
       <c r="E10" s="1">
         <v>0.02</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>0.96734039999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>-3.2787084226193419E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>0.96721291577380653</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <f t="shared" si="2"/>
         <v>1.3180575250225203E-2</v>
       </c>
@@ -1344,18 +1406,18 @@
       <c r="E11" s="1">
         <v>0.03</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.96635669999999996</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>-3.3770909802031096E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f t="shared" si="1"/>
         <v>0.96622909019796888</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <f t="shared" si="2"/>
         <v>1.3206992350534122E-2</v>
       </c>
@@ -1367,18 +1429,18 @@
       <c r="E12" s="1">
         <v>0.04</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>0.9661708</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>-3.3956730450754452E-2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
         <v>0.96604326954924558</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f t="shared" si="2"/>
         <v>1.3201318695996519E-2</v>
       </c>
@@ -1390,18 +1452,18 @@
       <c r="E13" s="1">
         <v>0.05</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>0.96613570000000004</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>-3.3991827437801742E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f t="shared" si="1"/>
         <v>0.96600817256219829</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <f t="shared" si="2"/>
         <v>1.3201486428785297E-2</v>
       </c>
@@ -1413,18 +1475,18 @@
       <c r="E14" s="1">
         <v>0.06</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>0.96612909999999996</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>-3.3998456402388078E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
         <v>0.96600154359761192</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <f t="shared" si="2"/>
         <v>1.3204575420551718E-2</v>
       </c>
@@ -1436,18 +1498,18 @@
       <c r="E15" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>0.96612779999999998</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>-3.399970845207051E-2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>0.96600029154792955</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <f t="shared" si="2"/>
         <v>1.3199628735734032E-2</v>
       </c>
@@ -1459,18 +1521,18 @@
       <c r="E16" s="1">
         <v>0.08</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>0.96612759999999998</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>-3.3999944933709066E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>0.96600005506629094</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <f t="shared" si="2"/>
         <v>1.3203408533996543E-2</v>
       </c>
@@ -1482,18 +1544,18 @@
       <c r="E17" s="1">
         <v>0.09</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>0.96612759999999998</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>-3.3999989599321108E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f t="shared" si="1"/>
         <v>0.96600001040067884</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <f t="shared" si="2"/>
         <v>1.3208032913810218E-2</v>
       </c>
@@ -1505,18 +1567,18 @@
       <c r="E18" s="1">
         <v>0.1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>0.96612759999999998</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>-3.3999998035565505E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
         <v>0.96600000196443447</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <f t="shared" si="2"/>
         <v>1.3208906346379008E-2</v>
       </c>
@@ -1762,15 +1824,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:7">
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1848,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:7">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1797,7 +1859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:7">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:7">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:7">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -1866,252 +1928,252 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f>ABS(G13-E13)/G13*100</f>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <f>ABS(F13-E13)/F13*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="5">
-        <v>1.0483089999999999</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" ref="G14:G23" si="0">G13*(1+1.711*EXP(-(D14-0.04))*1.12*(C14-C13))</f>
-        <v>1.0486320366996098</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H23" si="1">ABS(G14-E14)/G14*100</f>
-        <v>3.0805534096266182E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="E14" s="7">
+        <v>1.0384530000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F13*(1+1.528*EXP(-(D14-0.04))*(C14-C13))</f>
+        <v>1.0387773190683205</v>
+      </c>
+      <c r="G14" s="7">
+        <f>ABS(F14-E14)/F14*100</f>
+        <v>3.1221231188538468E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>0.05</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>0.05</v>
       </c>
-      <c r="E15" s="5">
-        <v>1.0983830000000001</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0983700252187669</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>1.1812759757900294E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="E15" s="7">
+        <v>1.0779529999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F14*(1+1.528*EXP(-(D15-0.04))*(C15-C14))</f>
+        <v>1.0780637771884776</v>
+      </c>
+      <c r="G15" s="7">
+        <f>ABS(F15-E15)/F15*100</f>
+        <v>1.0275569110255116E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E16" s="5">
-        <v>1.1494089999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1491808689300873</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1.9851624411829187E-2</v>
+      <c r="E16" s="7">
+        <v>1.1178699999999999</v>
+      </c>
+      <c r="F16" s="7">
+        <f>F15*(1+1.528*EXP(-(D16-0.04))*(C16-C15))</f>
+        <v>1.1178293744812651</v>
+      </c>
+      <c r="G16" s="7">
+        <f>ABS(F16-E16)/F16*100</f>
+        <v>3.634321987083378E-3</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>0.1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>0.1</v>
       </c>
-      <c r="E17" s="5">
-        <v>1.201274</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2010296748953948</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>2.0342969845972156E-2</v>
+      <c r="E17" s="7">
+        <v>1.1581349999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F16*(1+1.528*EXP(-(D17-0.04))*(C17-C16))</f>
+        <v>1.1580437391535969</v>
+      </c>
+      <c r="G17" s="7">
+        <f>ABS(F17-E17)/F17*100</f>
+        <v>7.8806044467445453E-3</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>0.125</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>0.125</v>
       </c>
-      <c r="E18" s="5">
-        <v>1.25387</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2538798886239064</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>7.8864203789382923E-4</v>
+      <c r="E18" s="7">
+        <v>1.1986840000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <f>F17*(1+1.528*EXP(-(D18-0.04))*(C18-C17))</f>
+        <v>1.1986762158445519</v>
+      </c>
+      <c r="G18" s="7">
+        <f>ABS(F18-E18)/F18*100</f>
+        <v>6.4939600413578286E-4</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>0.15</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="7">
         <v>0.15</v>
       </c>
-      <c r="E19" s="5">
-        <v>1.307086</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.3076934314085467</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>4.6450597208583494E-2</v>
+      <c r="E19" s="7">
+        <v>1.239452</v>
+      </c>
+      <c r="F19" s="7">
+        <f>F18*(1+1.528*EXP(-(D19-0.04))*(C19-C18))</f>
+        <v>1.2396959515690378</v>
+      </c>
+      <c r="G19" s="7">
+        <f>ABS(F19-E19)/F19*100</f>
+        <v>1.9678338767584163E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E20" s="5">
-        <v>1.3608180000000001</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>1.362430839387468</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>0.11837954198049688</v>
+      <c r="E20" s="7">
+        <v>1.280378</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F19*(1+1.528*EXP(-(D20-0.04))*(C20-C19))</f>
+        <v>1.2810719789693081</v>
+      </c>
+      <c r="G20" s="7">
+        <f>ABS(F20-E20)/F20*100</f>
+        <v>5.4171739035808242E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>0.2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>0.2</v>
       </c>
-      <c r="E21" s="5">
-        <v>1.414963</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4180514035141638</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0.21779207061960307</v>
+      <c r="E21" s="7">
+        <v>1.321404</v>
+      </c>
+      <c r="F21" s="7">
+        <f>F20*(1+1.528*EXP(-(D21-0.04))*(C21-C20))</f>
+        <v>1.3227732966190269</v>
+      </c>
+      <c r="G21" s="7">
+        <f>ABS(F21-E21)/F21*100</f>
+        <v>0.10351710474702923</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E22" s="5">
-        <v>1.4694229999999999</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4745133096601057</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>0.34521964818881157</v>
+      <c r="E22" s="7">
+        <v>1.362473</v>
+      </c>
+      <c r="F22" s="7">
+        <f>F21*(1+1.528*EXP(-(D22-0.04))*(C22-C21))</f>
+        <v>1.3647689461583443</v>
+      </c>
+      <c r="G22" s="7">
+        <f>ABS(F22-E22)/F22*100</f>
+        <v>0.16822966003198414</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>0.25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>0.25</v>
       </c>
-      <c r="E23" s="5">
-        <v>1.5241070000000001</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>1.531773778117876</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.50051634434532488</v>
+      <c r="E23" s="7">
+        <v>1.403532</v>
+      </c>
+      <c r="F23" s="7">
+        <f>F22*(1+1.528*EXP(-(D23-0.04))*(C23-C22))</f>
+        <v>1.4070280860712943</v>
+      </c>
+      <c r="G23" s="7">
+        <f>ABS(F23-E23)/F23*100</f>
+        <v>0.24847308350866215</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2147,6 +2209,8 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2155,6 +2219,8 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2163,6 +2229,8 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2171,6 +2239,8 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2179,6 +2249,8 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:12">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2186,7 +2258,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="7:12">
+    <row r="33" spans="5:12">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2194,7 +2268,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="7:12">
+    <row r="34" spans="5:12">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2202,7 +2278,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="7:12">
+    <row r="35" spans="5:12">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2210,13 +2288,27 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="7:12">
+    <row r="36" spans="5:12">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2231,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J36" sqref="E25:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2256,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="H1">
-        <v>6.4119999999999999</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -2274,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="H2">
-        <v>-1.9800000000000002E-2</v>
+        <v>-2.81E-2</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -2350,20 +2442,20 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>873</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="1">
+        <v>900</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="3">
         <f>IF(C9/$D$2-2&lt;0,0,C9/$D$2-2)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9">
@@ -2375,82 +2467,82 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.01</v>
       </c>
-      <c r="D10" s="4">
-        <v>923</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.019226</v>
+      <c r="D10" s="1">
+        <v>950</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.01532</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:G19" si="1">IF(C10/$D$2-2&lt;0,0,C10/$D$2-2)</f>
+        <f>IF(C10/$D$2-2&lt;0,0,C10/$D$2-2)</f>
         <v>0</v>
       </c>
       <c r="H10">
         <f>1.711*1.112*(C10-C9)</f>
         <v>1.9026320000000003E-2</v>
       </c>
-      <c r="I10" s="6">
-        <f>(1.711+($H$1+$H$2*(D10-273)+$H$3*(D10-273)^2)*G10)*1.112*(C10-C9)</f>
-        <v>1.9026320000000003E-2</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="4">
+        <f>(1.528+($H$1+$H$2*D10+$H$3*D10^2)*G10)*(C10-C9)</f>
+        <v>1.528E-2</v>
+      </c>
+      <c r="J10" s="4">
         <f>J9*(1+H10)</f>
         <v>1.01902632</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1.9595175912622588E-2</v>
+        <v>0.3637119009840728</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>0.02</v>
       </c>
-      <c r="D11" s="4">
-        <v>973</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.0388170000000001</v>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.030872</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10:G19" si="1">IF(C11/$D$2-2&lt;0,0,C11/$D$2-2)</f>
         <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H19" si="2">1.711*1.112*(C11-C10)</f>
         <v>1.9026320000000003E-2</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" ref="I11:I19" si="3">(1.711+($H$1+$H$2*(D11-273)+$H$3*(D11-273)^2)*G11)*1.112*(C11-C10)</f>
-        <v>1.9026320000000003E-2</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I19" si="3">(1.528+($H$1+$H$2*D11+$H$3*D11^2)*G11)*(C11-C10)</f>
+        <v>1.528E-2</v>
+      </c>
+      <c r="J11" s="4">
         <f>J10*(1+I11)</f>
-        <v>1.0384146408527424</v>
+        <v>1.0345970421696</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3.8747445522080558E-2</v>
+        <v>0.36004763379068039</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.03</v>
       </c>
-      <c r="D12" s="4">
-        <v>1023</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.059666</v>
+      <c r="D12" s="1">
+        <v>1050</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0480849999999999</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
@@ -2460,31 +2552,31 @@
         <f t="shared" si="2"/>
         <v>1.9026319999999999E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>1.9871439999999987E-2</v>
-      </c>
-      <c r="J12" s="6">
+        <v>1.6657499999999995E-2</v>
+      </c>
+      <c r="J12" s="4">
         <f>J11*(1+I12)</f>
-        <v>1.0590494350835691</v>
+        <v>1.0518308423995402</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>5.821870972267356E-2</v>
+        <v>0.35612593285388444</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>0.04</v>
       </c>
-      <c r="D13" s="4">
-        <v>1073</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.0856399999999999</v>
+      <c r="D13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0712809999999999</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
@@ -2494,31 +2586,31 @@
         <f t="shared" si="2"/>
         <v>1.9026320000000006E-2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>2.4268605714285706E-2</v>
-      </c>
-      <c r="J13" s="6">
+        <v>2.2068571428571417E-2</v>
+      </c>
+      <c r="J13" s="4">
         <f t="shared" ref="J13:J14" si="4">J12*(1+I13)</f>
-        <v>1.0847510882555493</v>
+        <v>1.0750432464758088</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>8.1946149128102261E-2</v>
+        <v>0.34996233762151047</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.05</v>
       </c>
-      <c r="D14" s="4">
-        <v>1123</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.123472</v>
+      <c r="D14" s="1">
+        <v>1150</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1072470000000001</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
@@ -2528,31 +2620,31 @@
         <f t="shared" si="2"/>
         <v>1.9026320000000006E-2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>3.4481531428571355E-2</v>
-      </c>
-      <c r="J14" s="6">
+        <v>3.3441785714285771E-2</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="4"/>
-        <v>1.12215496699741</v>
+        <v>1.1109946123580428</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.11736641028413738</v>
+        <v>0.33732047989760283</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>0.06</v>
       </c>
-      <c r="D15" s="4">
-        <v>1173</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.175098</v>
+      <c r="D15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.1477919999999999</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
@@ -2562,31 +2654,31 @@
         <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>5.2773931428571341E-2</v>
-      </c>
-      <c r="J15" s="6">
+        <v>5.2812857142857196E-2</v>
+      </c>
+      <c r="J15" s="4">
         <f>J14*(1+$H$5)</f>
-        <v>1.1680623266972741</v>
+        <v>1.1564454019496102</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.60233714776329317</v>
+        <v>0.74827587493727077</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D16" s="4">
-        <v>1223</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.228858</v>
+      <c r="D16" s="1">
+        <v>1250</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.189692</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
@@ -2596,31 +2688,31 @@
         <f t="shared" si="2"/>
         <v>1.902632000000002E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>8.1409519999999957E-2</v>
-      </c>
-      <c r="J16" s="6">
+        <v>8.2217500000000068E-2</v>
+      </c>
+      <c r="J16" s="4">
         <f>J15*(1+$H$5)</f>
-        <v>1.2158477564824595</v>
+        <v>1.2037555833433689</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1.0700553131076354</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>1.1683088774805932</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>0.08</v>
       </c>
-      <c r="D17" s="4">
-        <v>1273</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.284761</v>
+      <c r="D17" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.2329559999999999</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
@@ -2630,31 +2722,31 @@
         <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>0.12265201142857127</v>
-      </c>
-      <c r="J17" s="6">
+        <v>0.1236914285714284</v>
+      </c>
+      <c r="J17" s="4">
         <f>J16*(1+$H$5)</f>
-        <v>1.2655880882001569</v>
+        <v>1.253001224257946</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1.5149409178708146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>1.5997769092218797</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>0.09</v>
       </c>
-      <c r="D18" s="4">
-        <v>1323</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.3428150000000001</v>
+      <c r="D18" s="1">
+        <v>1350</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.277587</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
@@ -2664,31 +2756,31 @@
         <f t="shared" si="2"/>
         <v>1.9026319999999992E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>0.17876511999999961</v>
-      </c>
-      <c r="J18" s="6">
+        <v>0.179270357142857</v>
+      </c>
+      <c r="J18" s="4">
         <f>J17*(1+$H$5)</f>
-        <v>1.3173632968884252</v>
+        <v>1.3042615043423387</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1.9320185382188084</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>2.0451806829788333</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>0.1</v>
       </c>
-      <c r="D19" s="4">
-        <v>1373</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1.403019</v>
+      <c r="D19" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.323588</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
@@ -2698,258 +2790,308 @@
         <f t="shared" si="2"/>
         <v>1.902632000000002E-2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>0.25201256000000011</v>
-      </c>
-      <c r="J19" s="6">
+        <v>0.2509900000000001</v>
+      </c>
+      <c r="J19" s="4">
         <f>J18*(1+$H$5)</f>
-        <v>1.3712566293641306</v>
+        <v>1.3576188424849838</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>2.3162965965457549</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+        <v>2.5066566123002367</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="E25" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:18">
       <c r="E26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
-        <v>873</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="G26" s="6">
+        <v>900</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:18">
       <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>0.01</v>
       </c>
-      <c r="G27" s="4">
-        <v>923</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1.019226</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="G27" s="6">
+        <v>950</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.01532</v>
+      </c>
+      <c r="I27" s="6">
         <v>1.01902632</v>
       </c>
-      <c r="J27" s="2">
-        <v>1.9595175912622588E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+      <c r="J27" s="6">
+        <v>0.3637119009840728</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="E28" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>0.02</v>
       </c>
-      <c r="G28" s="4">
-        <v>973</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1.0388170000000001</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1.0384146408527424</v>
-      </c>
-      <c r="J28" s="2">
-        <v>3.8747445522080558E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+      <c r="G28" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.030872</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.0345970421696</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.36004763379068039</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="2:18">
       <c r="E29" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>0.03</v>
       </c>
-      <c r="G29" s="4">
-        <v>1023</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1.059666</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.0590494350835691</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5.821870972267356E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="G29" s="6">
+        <v>1050</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.0480849999999999</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1.0518308423995402</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.35612593285388444</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="2:18">
       <c r="E30" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <v>0.04</v>
       </c>
-      <c r="G30" s="4">
-        <v>1073</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.0856399999999999</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1.0847510882555493</v>
-      </c>
-      <c r="J30" s="2">
-        <v>8.1946149128102261E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
+      <c r="G30" s="6">
+        <v>1100</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.0712809999999999</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1.0750432464758088</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.34996233762151047</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="2:18">
       <c r="E31" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>0.05</v>
       </c>
-      <c r="G31" s="4">
-        <v>1123</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.123472</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1.12215496699741</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.11736641028413738</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="G31" s="6">
+        <v>1150</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.1072470000000001</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.1109946123580428</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.33732047989760283</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="E32" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>0.06</v>
       </c>
-      <c r="G32" s="4">
-        <v>1173</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1.175098</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1.1680623266972741</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.60233714776329317</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
+      <c r="G32" s="6">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.1477919999999999</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1.1564454019496102</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.74827587493727077</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="5:18">
       <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G33" s="4">
-        <v>1223</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1.228858</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1.2158477564824595</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1.0700553131076354</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
+      <c r="G33" s="6">
+        <v>1250</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1.189692</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1.2037555833433689</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.1683088774805932</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="5:18">
       <c r="E34" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="6">
         <v>0.08</v>
       </c>
-      <c r="G34" s="4">
-        <v>1273</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1.284761</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1.2655880882001569</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1.5149409178708146</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10">
+      <c r="G34" s="6">
+        <v>1300</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.2329559999999999</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1.253001224257946</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.5997769092218797</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="5:18">
       <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="6">
         <v>0.09</v>
       </c>
-      <c r="G35" s="4">
-        <v>1323</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1.3428150000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.3173632968884252</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1.9320185382188084</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10">
+      <c r="G35" s="6">
+        <v>1350</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1.277587</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1.3042615043423387</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2.0451806829788333</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="5:18">
       <c r="E36" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="6">
         <v>0.1</v>
       </c>
-      <c r="G36" s="4">
-        <v>1373</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1.403019</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1.3712566293641306</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2.3162965965457549</v>
-      </c>
+      <c r="G36" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.323588</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1.3576188424849838</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2.5066566123002367</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="5:18">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2966,13 +3108,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:7">
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -2980,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +3130,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:7">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -2999,7 +3141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:7">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:7">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:7">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -3033,16 +3175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <f>4.558*1.112*C14</f>
-        <v>0.12671240000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:7">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:7">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +3197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +3205,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -3083,289 +3216,246 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" ref="G13:G23" si="0">ABS(F13-E13)/F13*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>200000</v>
       </c>
-      <c r="E14" s="5">
-        <v>1.0473440000000001</v>
-      </c>
-      <c r="F14" s="6">
-        <f>F13*(1+1.711*EXP(-(D13/$D$7*$D$2))*1.12*(C14-C13))</f>
-        <v>1.0479080000000001</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="7">
+        <v>1.0376860000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F13*(1+1.528*EXP(-(D13/$D$7*$D$2))*(C14-C13))</f>
+        <v>1.0382</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>5.382151868293867E-2</v>
-      </c>
-      <c r="H14">
-        <f>1.711*EXP(-(D14/$D$7*$D$2))*1.12*(C14-C13)</f>
-        <v>4.6959358040780039E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>4.9508765170478079E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>0.05</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>400000</v>
       </c>
-      <c r="E15" s="5">
-        <v>1.0958840000000001</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F23" si="1">F14*(1+1.711*EXP(-(D14/$D$7*$D$2))*1.12*(C15-C14))</f>
-        <v>1.0971170869657978</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="7">
+        <v>1.0759840000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15:F23" si="1">F14*(1+1.528*EXP(-(D14/$D$7*$D$2))*(C15-C14))</f>
+        <v>1.0770739344323541</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0.11239337901553938</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H23" si="2">1.711*EXP(-(D15/$D$7*$D$2))*1.12*(C15-C14)</f>
-        <v>4.6029500450909505E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>0.10119402183179557</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>600000</v>
       </c>
-      <c r="E16" s="5">
-        <v>1.145535</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="7">
+        <v>1.114843</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>1.1476168384149905</v>
-      </c>
-      <c r="G16" s="6">
+        <v>1.1166048706174081</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0.18140535632657992</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>4.5118055274954182E-2</v>
+        <v>0.15778819023365631</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>0.1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>800000</v>
       </c>
-      <c r="E17" s="5">
-        <v>1.196213</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="7">
+        <v>1.1542079999999999</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>1.1993950783650662</v>
-      </c>
-      <c r="G17" s="6">
+        <v>1.1567751832670896</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0.2653069386781064</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>4.4224657922690959E-2</v>
+        <v>0.22192585942578708</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>0.125</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>1000000</v>
       </c>
-      <c r="E18" s="5">
-        <v>1.24783</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="7">
+        <v>1.194029</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>1.2524379154199206</v>
-      </c>
-      <c r="G18" s="6">
+        <v>1.1975665979524366</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0.36791567575432327</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>4.3348951023266746E-2</v>
+        <v>0.29539884950741413</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>0.15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>1200000</v>
       </c>
-      <c r="E19" s="5">
-        <v>1.3002990000000001</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="7">
+        <v>1.2342519999999999</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>1.3067297852751409</v>
-      </c>
-      <c r="G19" s="6">
+        <v>1.2389602351659807</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0.49212816204283599</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>4.2490584282245579E-2</v>
+        <v>0.38001503457050767</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>1400000</v>
       </c>
-      <c r="E20" s="5">
-        <v>1.353534</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="7">
+        <v>1.2748280000000001</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>1.3622534973504949</v>
-      </c>
-      <c r="G20" s="6">
+        <v>1.2809366548047976</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>0.64007891097023095</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>4.1649214341485989E-2</v>
+        <v>0.47688968708045887</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>0.2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>1600000</v>
       </c>
-      <c r="E21" s="5">
-        <v>1.4074469999999999</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="7">
+        <v>1.3157049999999999</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>1.4189902852490845</v>
-      </c>
-      <c r="G21" s="6">
+        <v>1.3234759009061658</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>0.81348585463066703</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>4.0824504641793297E-2</v>
+        <v>0.58715847420004519</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>1800000</v>
       </c>
-      <c r="E22" s="5">
-        <v>1.461957</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="7">
+        <v>1.3568359999999999</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>1.4769198607358953</v>
-      </c>
-      <c r="G22" s="6">
+        <v>1.3665575464744655</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>1.0131125685072662</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>4.0016125288291217E-2</v>
+        <v>0.71138946907474399</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>0.25</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>2000000</v>
       </c>
-      <c r="E23" s="5">
-        <v>1.5169820000000001</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="7">
+        <v>1.3981730000000001</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>1.5360204709238683</v>
-      </c>
-      <c r="G23" s="6">
+        <v>1.4101607382450922</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>1.2394672651997398</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>3.9223752918459948E-2</v>
+        <v>0.85009729174636939</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
